--- a/excel/作弊指令表.xlsx
+++ b/excel/作弊指令表.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,22 @@
   </si>
   <si>
     <t>修改横幅字体 %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removecard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,6 +585,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/作弊指令表.xlsx
+++ b/excel/作弊指令表.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="o_cheat_system_item" localSheetId="0">作弊指令表!#REF!</definedName>
-    <definedName name="o_cheat_system_item_1" localSheetId="0">作弊指令表!$A$5:$D$5</definedName>
+    <definedName name="o_cheat_system_item_1" localSheetId="0">作弊指令表!#REF!</definedName>
     <definedName name="o_excel" localSheetId="0">作弊指令表!#REF!</definedName>
     <definedName name="o_excel_1" localSheetId="0">作弊指令表!#REF!</definedName>
   </definedNames>
@@ -19,23 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="o_cheat_system_item1" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_cheat_system_item.csv" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,12 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改横幅</t>
-  </si>
-  <si>
-    <t>剧情演示</t>
-  </si>
-  <si>
     <t>str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,29 +62,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hi，你好！</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>修改横幅字体 %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>removecard</t>
+    <t>我方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色_添加手牌 %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色_移除手牌 %s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,10 +189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_cheat_system_item_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +481,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,10 +524,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -562,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -576,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -590,10 +563,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -601,10 +577,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/作弊指令表.xlsx
+++ b/excel/作弊指令表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>角色_移除手牌 %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册卡牌指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_test 0x1006%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,17 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,6 +599,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
